--- a/html_tags.xlsx
+++ b/html_tags.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t xml:space="preserve">Tag 1</t>
   </si>
@@ -31,15 +31,21 @@
     <t xml:space="preserve">Tag 3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://mebli-bristol.com.ua/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://gerbor.kiev.ua/</t>
   </si>
   <si>
-    <t xml:space="preserve">span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
     <t xml:space="preserve">price-number s-product-price</t>
   </si>
   <si>
@@ -58,9 +64,6 @@
     <t xml:space="preserve">itemprop</t>
   </si>
   <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://mebel-mebel.com.ua/</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t xml:space="preserve">https://gerbor.mebelok.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Price-new</t>
+    <t xml:space="preserve">price-new</t>
   </si>
   <si>
     <t xml:space="preserve">http://maxmebel.com.ua/</t>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://shurup.net.ua/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price-new</t>
   </si>
   <si>
     <t xml:space="preserve">https://mebel-online.com.ua</t>
@@ -113,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,6 +137,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -162,12 +169,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,28 +237,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,12 +346,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.35"/>
   </cols>
   <sheetData>
@@ -349,173 +366,188 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="http://gerbor.kiev.ua/"/>
-    <hyperlink ref="A6" r:id="rId2" display="http://www.brwland.com.ua/"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://vashamebel.in.ua/"/>
-    <hyperlink ref="A8" r:id="rId4" display="http://mebel-mebel.com.ua/"/>
-    <hyperlink ref="A9" r:id="rId5" display="http://abcmebli.com.ua"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://gerbor.mebelok.com/"/>
-    <hyperlink ref="A11" r:id="rId7" display="http://maxmebel.com.ua/"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://moyamebel.com.ua/ua"/>
-    <hyperlink ref="A13" r:id="rId9" display="https://brw.kiev.ua/"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://shurup.net.ua/"/>
-    <hyperlink ref="A15" r:id="rId11" display="https://mebel-online.com.ua"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://mebli-bristol.com.ua/"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://gerbor.kiev.ua/"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://www.brwland.com.ua/"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://vashamebel.in.ua/"/>
+    <hyperlink ref="A8" r:id="rId5" display="http://mebel-mebel.com.ua/"/>
+    <hyperlink ref="A9" r:id="rId6" display="http://abcmebli.com.ua"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://gerbor.mebelok.com/"/>
+    <hyperlink ref="A11" r:id="rId8" display="http://maxmebel.com.ua/"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://moyamebel.com.ua/ua"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://brw.kiev.ua/"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://shurup.net.ua/"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://mebel-online.com.ua"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
